--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_4_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_4_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.16000000000018</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.697736485839485e-07</v>
+        <v>7.123612810744362e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>1.697736485839485e-07</v>
+        <v>7.123612810744362e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>54.51112502310256</v>
+        <v>58.29426837345365</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[34.91500877739871, 74.1072412688064]</t>
+          <t>[43.0894447422762, 73.49909200463111]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.209435869231612e-06</v>
+        <v>8.779499349742537e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.209435869231612e-06</v>
+        <v>8.779499349742537e-10</v>
       </c>
       <c r="P2" t="n">
-        <v>1.389973926813503</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 1.7673424137311962]</t>
+          <t>[1.2893423303021168, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.45014497579632e-09</v>
+        <v>7.72715225139109e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>2.45014497579632e-09</v>
+        <v>7.72715225139109e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>60.29502871279135</v>
+        <v>56.66828097303738</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.911504254857014, 71.67855317072568]</t>
+          <t>[46.87793292165064, 66.45862902442413]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.59472476627343e-14</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>6.59472476627343e-14</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>18.03651651651666</v>
+        <v>17.36932932932948</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.64552552552565</v>
+        <v>16.25173173173187</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.42750750750766</v>
+        <v>18.48692692692709</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.16000000000018</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.004940332411831e-05</v>
+        <v>5.005255432344313e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>2.004940332411831e-05</v>
+        <v>5.005255432344313e-09</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>50.59704696135586</v>
+        <v>56.0359478211881</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[27.76960767854868, 73.42448624416305]</t>
+          <t>[38.73432814097556, 73.33756750140064]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.343490038289822e-05</v>
+        <v>5.206607367469474e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>5.343490038289822e-05</v>
+        <v>5.206607367469474e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.792500312859041</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 2.320816194543811]</t>
+          <t>[1.4654476241970409, 2.169868799776734]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.79958772328348e-08</v>
+        <v>1.527666881884215e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.79958772328348e-08</v>
+        <v>1.527666881884215e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>58.43929941447027</v>
+        <v>54.75472281454606</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.978985402820214, 71.89961342612033]</t>
+          <t>[44.61281646811304, 64.89662916097909]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.919153807567909e-11</v>
+        <v>3.530509218307998e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.919153807567909e-11</v>
+        <v>3.530509218307998e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>16.55279279279292</v>
+        <v>16.53113113113127</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.60540540540552</v>
+        <v>15.2272672672674</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.50018018018032</v>
+        <v>17.83499499499515</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.16000000000018</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>8.404829832109328e-09</v>
+        <v>2.754685368699938e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>8.404829832109328e-09</v>
+        <v>2.754685368699938e-12</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>61.86405714207639</v>
+        <v>63.54186372250847</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[40.437689853991145, 83.29042443016164]</t>
+          <t>[46.46218972920506, 80.62153771581188]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.866219154881946e-07</v>
+        <v>1.903163404648467e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>5.866219154881946e-07</v>
+        <v>1.903163404648467e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>2.031500354573581</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.666710817219812, 2.396289891927349]</t>
+          <t>[1.9182898084982716, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>61.40324329191014</v>
+        <v>67.81752837189451</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.91570694571915, 72.89077963810112]</t>
+          <t>[58.8839228510611, 76.75113389272792]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.907185768843192e-14</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>4.907185768843192e-14</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>15.67183183183195</v>
+        <v>15.13413413413426</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.32720720720732</v>
+        <v>14.10966966966979</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.01645645645658</v>
+        <v>16.15859859859874</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.16000000000018</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.420896816346385e-11</v>
+        <v>1.867842902569805e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.420896816346385e-11</v>
+        <v>1.867842902569805e-08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>70.37493269756877</v>
+        <v>57.28393308776188</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.724701145887295, 91.02516424925024]</t>
+          <t>[35.85853350450074, 78.70933267102302]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.621935319384704e-08</v>
+        <v>2.528110724764332e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>1.621935319384704e-08</v>
+        <v>2.528110724764332e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>2.257921446724196</v>
+        <v>2.207605648468503</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.9560266571900415, 2.5598162362583503]</t>
+          <t>[1.8176582119868865, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>7.327471962526033e-15</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>7.327471962526033e-15</v>
       </c>
       <c r="T5" t="n">
-        <v>62.09128998140541</v>
+        <v>58.83023660705443</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[51.440606994252306, 72.74197296855851]</t>
+          <t>[47.78657790613076, 69.8738953079781]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>5.484501741648273e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>5.484501741648273e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>14.83723723723735</v>
+        <v>15.0875675675677</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.72444444444455</v>
+        <v>13.64400400400412</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.95003003003016</v>
+        <v>16.53113113113127</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.16000000000018</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.32739322522557e-06</v>
+        <v>9.086311114625545e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>1.32739322522557e-06</v>
+        <v>9.086311114625545e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>47.92734284032387</v>
+        <v>56.03564227250864</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[26.160397438808694, 69.69428824183905]</t>
+          <t>[32.88827955583668, 79.1830049891806]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.877908632556661e-05</v>
+        <v>1.389512718197317e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>5.877908632556661e-05</v>
+        <v>1.389512718197317e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>2.408868841491273</v>
+        <v>2.345974093671657</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.9811845563178876, 2.8365531266646586]</t>
+          <t>[1.9686056067539632, 2.72334258058935]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S6" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T6" t="n">
-        <v>59.29531591491629</v>
+        <v>54.5841659357698</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.05294941721961, 70.53768241261297]</t>
+          <t>[43.008598353263835, 66.15973351827576]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.571721027943568e-14</v>
+        <v>2.54996024295906e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>7.571721027943568e-14</v>
+        <v>2.54996024295906e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>14.28084084084095</v>
+        <v>14.57533533533546</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.70438438438448</v>
+        <v>13.17833833833845</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.85729729729742</v>
+        <v>15.97233233233247</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.16000000000018</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>9.899666864043866e-09</v>
+        <v>2.397522969044275e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>9.899666864043866e-09</v>
+        <v>2.397522969044275e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>52.62074852969887</v>
+        <v>49.51235457950482</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[33.5909901363178, 71.65050692307993]</t>
+          <t>[29.702907750539595, 69.32180140847004]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.354326787605942e-06</v>
+        <v>8.210644464767825e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>1.354326787605942e-06</v>
+        <v>8.210644464767825e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>2.647868883205812</v>
+        <v>2.647868883205811</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.270500396288119, 3.025237370123505]</t>
+          <t>[2.220184598032426, 3.075553168379196]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T7" t="n">
-        <v>55.51277799119656</v>
+        <v>52.38654579955399</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.49723991851755, 65.52831606387558]</t>
+          <t>[41.60728087177495, 63.16581072733304]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.48769885299771e-14</v>
+        <v>1.011857264643368e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48769885299771e-14</v>
+        <v>1.011857264643368e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>13.39987987987998</v>
+        <v>13.45773773773785</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.00888888888898</v>
+        <v>11.87447447447458</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.79087087087099</v>
+        <v>15.04100100100113</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.16000000000018</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.270285706795221e-09</v>
+        <v>2.456852354892902e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>7.270285706795221e-09</v>
+        <v>2.456852354892902e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.06206206990877</v>
+        <v>49.80254184817222</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[33.56644903308238, 66.55767510673516]</t>
+          <t>[32.22137752817697, 67.38370616816746]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.124865501329509e-07</v>
+        <v>8.53000112988056e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>2.124865501329509e-07</v>
+        <v>8.53000112988056e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>2.786237328408966</v>
+        <v>2.849132076228581</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.408868841491273, 3.163605815326658]</t>
+          <t>[2.471763589310888, 3.2265005631462746]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,27 +1139,27 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>50.52297894462178</v>
+        <v>56.2141922902656</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.07169418941781, 59.974263699825755]</t>
+          <t>[46.363197505784264, 66.06518707474694]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.884981308350689e-14</v>
+        <v>5.551115123125783e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>4.884981308350689e-14</v>
+        <v>5.551115123125783e-15</v>
       </c>
       <c r="X8" t="n">
-        <v>12.88984984984995</v>
+        <v>12.71267267267278</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.49885885885895</v>
+        <v>11.31567567567577</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.28084084084095</v>
+        <v>14.10966966966979</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.59000000000009</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.767344297107456e-10</v>
+        <v>2.402398280310081e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>4.767344297107456e-10</v>
+        <v>2.402398280310081e-10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>54.58497667179974</v>
+        <v>63.08660208836336</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[38.246506546113366, 70.92344679748612]</t>
+          <t>[46.82912405151919, 79.34408012520754]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.574534074817336e-08</v>
+        <v>6.40205666257998e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>2.574534074817336e-08</v>
+        <v>6.40205666257998e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>2.861711025792504</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.534658337130504, 3.188763714454504]</t>
+          <t>[-3.396316382259236, -2.792526803190927]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>59.73733132734037</v>
+        <v>63.12762790852518</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.31715728533374, 69.157505369347]</t>
+          <t>[52.54753236852574, 73.70772344852463]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>12.30126126126131</v>
+        <v>11.23375375375382</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.12540540540545</v>
+        <v>10.13777777777783</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.47711711711717</v>
+        <v>12.3297297297298</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.59000000000009</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>9.913451783916116e-07</v>
+        <v>3.373022902097844e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>9.913451783916116e-07</v>
+        <v>3.373022902097844e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.42599599319087</v>
+        <v>53.16782396340193</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[27.618734696679695, 67.23325728970204]</t>
+          <t>[32.29630951228023, 74.03933841452363]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.65709286605864e-05</v>
+        <v>5.945867687318085e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65709286605864e-05</v>
+        <v>5.945867687318085e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.880579450138388</v>
+        <v>-2.855421551010543</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.346000584003543, -2.4151583162732337]</t>
+          <t>[-3.3208426848756973, -2.390000417145388]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T10" t="n">
-        <v>60.02112941320338</v>
+        <v>56.9121688304335</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[48.88282562087585, 71.15943320553092]</t>
+          <t>[45.061002237134105, 68.7633354237329]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.752553823233029e-14</v>
+        <v>1.461719634221481e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>3.752553823233029e-14</v>
+        <v>1.461719634221481e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>10.35657657657662</v>
+        <v>10.36610610610616</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.683243243243277</v>
+        <v>8.676476476476523</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.02990990990996</v>
+        <v>12.0557357357358</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.59000000000009</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.3399326093122e-10</v>
+        <v>4.099019401682114e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3399326093122e-10</v>
+        <v>4.099019401682114e-08</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>57.22026606974764</v>
+        <v>48.72261422472592</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[39.56296745390679, 74.87756468558848]</t>
+          <t>[31.25893445638897, 66.18629399306286]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.141199443947642e-08</v>
+        <v>1.143389375179993e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>5.141199443947642e-08</v>
+        <v>1.143389375179993e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.64157940842385</v>
+        <v>-2.754789954499158</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.9560531475219274, -2.3271056693257726]</t>
+          <t>[-3.1447373909807745, -2.3648425180175416]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,27 +1397,27 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52.20834089945384</v>
+        <v>53.4205540480076</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[42.9258727213609, 61.49080907754677]</t>
+          <t>[43.55208882716755, 63.28901926884765]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.103828801926284e-15</v>
+        <v>3.241851231905457e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>9.103828801926284e-15</v>
+        <v>3.241851231905457e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>9.497297297297337</v>
+        <v>10.00078078078084</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.366666666666701</v>
+        <v>8.585145145145191</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.62792792792797</v>
+        <v>11.41641641641648</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.59000000000009</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>5.579321969539919e-06</v>
+        <v>0.0003024875562076534</v>
       </c>
       <c r="I12" t="n">
-        <v>5.579321969539919e-06</v>
+        <v>0.0003024875562076534</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>50.16480551255727</v>
+        <v>36.54683915461952</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[25.94294838398544, 74.3866626411291]</t>
+          <t>[14.737206872909404, 58.356471436329635]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0001363097725000095</v>
+        <v>0.001528329980261089</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001363097725000095</v>
+        <v>0.001528329980261089</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.188737224122619</v>
+        <v>-2.088105627611234</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, -1.6981581911296182]</t>
+          <t>[-2.7044741562434655, -1.471737098979002]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.326139198454257e-11</v>
+        <v>1.863956966552394e-08</v>
       </c>
       <c r="S12" t="n">
-        <v>1.326139198454257e-11</v>
+        <v>1.863956966552394e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>55.20761142366161</v>
+        <v>51.12986429394139</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.7751870656476, 67.64003578167562]</t>
+          <t>[39.53085600270565, 62.72887258517713]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.521116566038927e-11</v>
+        <v>1.883027067606236e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.521116566038927e-11</v>
+        <v>1.883027067606236e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>7.869189189189223</v>
+        <v>7.580500500500543</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.105405405405432</v>
+        <v>5.342882882882913</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.632972972973015</v>
+        <v>9.818118118118173</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_4_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_4_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.2600000000002</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>7.123612810744362e-10</v>
+        <v>7.981336877516121e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>7.123612810744362e-10</v>
+        <v>7.981336877516121e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>58.29426837345365</v>
+        <v>45.21981023529482</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[43.0894447422762, 73.49909200463111]</t>
+          <t>[27.299553771672308, 63.14006669891732]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.779499349742537e-10</v>
+        <v>6.98906400775634e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>8.779499349742537e-10</v>
+        <v>6.98906400775634e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.591237119836271</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2893423303021168, 1.8931319093704255]</t>
+          <t>[1.0503422885875784, 2.0566582537014257]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.72715225139109e-14</v>
+        <v>1.478307047886318e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>7.72715225139109e-14</v>
+        <v>1.478307047886318e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>56.66828097303738</v>
+        <v>53.88439615447817</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.87793292165064, 66.45862902442413]</t>
+          <t>[42.47045163314508, 65.29834067581126]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>2.461808534803822e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>2.461808534803822e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.36932932932948</v>
+        <v>17.49397397397412</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.25173173173187</v>
+        <v>15.63291291291305</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.48692692692709</v>
+        <v>19.3550350350352</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.2600000000002</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.005255432344313e-09</v>
+        <v>1.767203050562216e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>5.005255432344313e-09</v>
+        <v>1.767203050562216e-10</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>56.0359478211881</v>
+        <v>61.98687135951219</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[38.73432814097556, 73.33756750140064]</t>
+          <t>[44.191874028844666, 79.78186869017972]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.206607367469474e-08</v>
+        <v>9.651407228972175e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>5.206607367469474e-08</v>
+        <v>9.651407228972175e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>1.817658211986887</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.4654476241970409, 2.169868799776734]</t>
+          <t>[1.603816069400196, 2.232763547596349]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.527666881884215e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S3" t="n">
-        <v>1.527666881884215e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T3" t="n">
-        <v>54.75472281454606</v>
+        <v>52.51337011514005</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.61281646811304, 64.89662916097909]</t>
+          <t>[42.568025525215305, 62.45871470506479]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.530509218307998e-14</v>
+        <v>7.30526750203353e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530509218307998e-14</v>
+        <v>7.30526750203353e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>16.53113113113127</v>
+        <v>16.14470470470484</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.2272672672674</v>
+        <v>14.98154154154167</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.83499499499515</v>
+        <v>17.30786786786801</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.2600000000002</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.754685368699938e-12</v>
+        <v>3.947200344356361e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>2.754685368699938e-12</v>
+        <v>3.947200344356361e-10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>63.54186372250847</v>
+        <v>59.41793671588472</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[46.46218972920506, 80.62153771581188]</t>
+          <t>[40.86431697180298, 77.97155645996646]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.903163404648467e-09</v>
+        <v>6.687037101826832e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>1.903163404648467e-09</v>
+        <v>6.687037101826832e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.19502669890458</v>
+        <v>2.056658253701426</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.9182898084982716, 2.4717635893108882]</t>
+          <t>[1.7547634641672714, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,27 +795,27 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>67.81752837189451</v>
+        <v>61.11526591995707</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[58.8839228510611, 76.75113389272792]</t>
+          <t>[51.276609580241654, 70.9539222596725]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>15.13413413413426</v>
+        <v>15.63291291291305</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.10966966966979</v>
+        <v>14.5162762762764</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.15859859859874</v>
+        <v>16.74954954954969</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.2600000000002</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.867842902569805e-08</v>
+        <v>5.588584185423073e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>1.867842902569805e-08</v>
+        <v>5.588584185423073e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>57.28393308776188</v>
+        <v>49.20369719308007</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[35.85853350450074, 78.70933267102302]</t>
+          <t>[27.275181210202284, 71.13221317595787]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.528110724764332e-06</v>
+        <v>4.471507277714615e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>2.528110724764332e-06</v>
+        <v>4.471507277714615e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.207605648468503</v>
+        <v>2.371131992799503</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.8176582119868865, 2.5975530849501194]</t>
+          <t>[1.9560266571900407, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.327471962526033e-15</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="S5" t="n">
-        <v>7.327471962526033e-15</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="T5" t="n">
-        <v>58.83023660705443</v>
+        <v>62.92715753102803</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.78657790613076, 69.8738953079781]</t>
+          <t>[51.87097663171599, 73.98333843034007]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.484501741648273e-14</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="W5" t="n">
-        <v>5.484501741648273e-14</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="X5" t="n">
-        <v>15.0875675675677</v>
+        <v>14.46974974974987</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.64400400400412</v>
+        <v>12.93437437437448</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.53113113113127</v>
+        <v>16.00512512512526</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.2600000000002</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>9.086311114625545e-08</v>
+        <v>1.481788802770723e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>9.086311114625545e-08</v>
+        <v>1.481788802770723e-09</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>56.03564227250864</v>
+        <v>60.29486688331693</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[32.88827955583668, 79.1830049891806]</t>
+          <t>[39.65361499911353, 80.93611876752033]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.389512718197317e-05</v>
+        <v>4.650488019120047e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>1.389512718197317e-05</v>
+        <v>4.650488019120047e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>2.345974093671657</v>
+        <v>2.484342538874811</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.9686056067539632, 2.72334258058935]</t>
+          <t>[2.144710900648888, 2.8239741771007347]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>54.5841659357698</v>
+        <v>55.98150828202516</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.008598353263835, 66.15973351827576]</t>
+          <t>[45.3638326812263, 66.59918388282402]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.54996024295906e-12</v>
+        <v>7.66053886991358e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.54996024295906e-12</v>
+        <v>7.66053886991358e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>14.57533533533546</v>
+        <v>14.05101101101113</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.17833833833845</v>
+        <v>12.7947947947949</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.97233233233247</v>
+        <v>15.30722722722735</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2600000000002</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.397522969044275e-07</v>
+        <v>5.814598802444948e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>2.397522969044275e-07</v>
+        <v>5.814598802444948e-10</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>49.51235457950482</v>
+        <v>61.69177384988215</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[29.702907750539595, 69.32180140847004]</t>
+          <t>[42.27255887777143, 81.11098882199288]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8.210644464767825e-06</v>
+        <v>7.982006078322001e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>8.210644464767825e-06</v>
+        <v>7.982006078322001e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>2.647868883205811</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.220184598032426, 3.075553168379196]</t>
+          <t>[2.333395144107734, 2.987500521431736]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.38654579955399</v>
+        <v>58.0075219352327</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.60728087177495, 63.16581072733304]</t>
+          <t>[47.467330255209056, 68.54771361525633]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.011857264643368e-12</v>
+        <v>1.887379141862766e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.011857264643368e-12</v>
+        <v>1.887379141862766e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>13.45773773773785</v>
+        <v>13.39963963963975</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.87447447447458</v>
+        <v>12.18994994995005</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.04100100100113</v>
+        <v>14.60932932932945</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.2600000000002</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.456852354892902e-08</v>
+        <v>5.396438851335006e-11</v>
       </c>
       <c r="I8" t="n">
-        <v>2.456852354892902e-08</v>
+        <v>5.396438851335006e-11</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>49.80254184817222</v>
+        <v>70.05250943579775</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.22137752817697, 67.38370616816746]</t>
+          <t>[50.786064750063304, 89.31895412153219]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>8.53000112988056e-07</v>
+        <v>3.387291780398982e-09</v>
       </c>
       <c r="O8" t="n">
-        <v>8.53000112988056e-07</v>
+        <v>3.387291780398982e-09</v>
       </c>
       <c r="P8" t="n">
-        <v>2.849132076228581</v>
+        <v>2.874289975356427</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.471763589310888, 3.2265005631462746]</t>
+          <t>[2.5598162362583494, 3.188763714454505]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,27 +1139,27 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>56.2141922902656</v>
+        <v>60.80019520027532</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.363197505784264, 66.06518707474694]</t>
+          <t>[49.744067537411354, 71.85632286313928]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>1.909583602355269e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>1.909583602355269e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>12.71267267267278</v>
+        <v>12.60868868868879</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.31567567567577</v>
+        <v>11.44552552552562</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.10966966966979</v>
+        <v>13.77185185185197</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.81000000000013</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.402398280310081e-10</v>
+        <v>2.623779590260611e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>2.402398280310081e-10</v>
+        <v>2.623779590260611e-07</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>63.08660208836336</v>
+        <v>51.2062665375222</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[46.82912405151919, 79.34408012520754]</t>
+          <t>[32.92854385178923, 69.48398922325516]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.40205666257998e-10</v>
+        <v>1.055925774151589e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>6.40205666257998e-10</v>
+        <v>1.055925774151589e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>-3.094421592725082</v>
+        <v>3.075553168379197</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.396316382259236, -2.792526803190927]</t>
+          <t>[2.6352899336418885, 3.5158164031165065]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>63.12762790852518</v>
+        <v>56.31779149373006</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[52.54753236852574, 73.70772344852463]</t>
+          <t>[44.91873199360492, 67.7168509938552]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>6.068479052601106e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>6.068479052601106e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>11.23375375375382</v>
+        <v>11.49669669669674</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.13777777777783</v>
+        <v>9.91871871871875</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.3297297297298</v>
+        <v>13.07467467467472</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.81000000000013</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.373022902097844e-07</v>
+        <v>1.386934332936463e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>3.373022902097844e-07</v>
+        <v>1.386934332936463e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>53.16782396340193</v>
+        <v>55.25346562063238</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[32.29630951228023, 74.03933841452363]</t>
+          <t>[35.324278311400676, 75.18265292986409]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.945867687318085e-06</v>
+        <v>1.288335734539459e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>5.945867687318085e-06</v>
+        <v>1.288335734539459e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.855421551010543</v>
+        <v>-2.943474197958004</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.3208426848756973, -2.390000417145388]</t>
+          <t>[-3.371158483131389, -2.5157899127846197]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>56.9121688304335</v>
+        <v>58.38821242460828</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.061002237134105, 68.7633354237329]</t>
+          <t>[46.48736477887557, 70.289060070341]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.461719634221481e-12</v>
+        <v>7.540634783254063e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.461719634221481e-12</v>
+        <v>7.540634783254063e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>10.36610610610616</v>
+        <v>10.54990990990995</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.676476476476523</v>
+        <v>9.017017017017052</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.0557357357358</v>
+        <v>12.08280280280284</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.81000000000013</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.099019401682114e-08</v>
+        <v>1.956942385916705e-10</v>
       </c>
       <c r="I11" t="n">
-        <v>4.099019401682114e-08</v>
+        <v>1.956942385916705e-10</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.72261422472592</v>
+        <v>62.57714315321417</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[31.25893445638897, 66.18629399306286]</t>
+          <t>[42.69152945555636, 82.46275685087197]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.143389375179993e-06</v>
+        <v>9.816606860724164e-08</v>
       </c>
       <c r="O11" t="n">
-        <v>1.143389375179993e-06</v>
+        <v>9.816606860724164e-08</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.754789954499158</v>
+        <v>-2.440316215401081</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-3.1447373909807745, -2.3648425180175416]</t>
+          <t>[-2.754789954499159, -2.1258424763030024]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,27 +1397,27 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>53.4205540480076</v>
+        <v>58.70361369548819</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.55208882716755, 63.28901926884765]</t>
+          <t>[48.547471303046784, 68.85975608792961]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.241851231905457e-14</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="W11" t="n">
-        <v>3.241851231905457e-14</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="X11" t="n">
-        <v>10.00078078078084</v>
+        <v>8.746506506506538</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.585145145145191</v>
+        <v>7.619379379379404</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.41641641641648</v>
+        <v>9.873633633633673</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.81000000000013</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003024875562076534</v>
+        <v>8.172405386863701e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003024875562076534</v>
+        <v>8.172405386863701e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>36.54683915461952</v>
+        <v>54.34980582983877</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[14.737206872909404, 58.356471436329635]</t>
+          <t>[31.4691543550463, 77.23045730463124]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001528329980261089</v>
+        <v>1.88019266749162e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001528329980261089</v>
+        <v>1.88019266749162e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.088105627611234</v>
+        <v>-2.050368778919465</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.7044741562434655, -1.471737098979002]</t>
+          <t>[-2.4654741145289267, -1.6352634433100026]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.863956966552394e-08</v>
+        <v>6.112887973586112e-13</v>
       </c>
       <c r="S12" t="n">
-        <v>1.863956966552394e-08</v>
+        <v>6.112887973586112e-13</v>
       </c>
       <c r="T12" t="n">
-        <v>51.12986429394139</v>
+        <v>64.33818095695449</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[39.53085600270565, 62.72887258517713]</t>
+          <t>[52.18937868476395, 76.48698322914503]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.883027067606236e-11</v>
+        <v>6.639133687258436e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>1.883027067606236e-11</v>
+        <v>6.639133687258436e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>7.580500500500543</v>
+        <v>7.348868868868896</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.342882882882913</v>
+        <v>5.861061061061084</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.818118118118173</v>
+        <v>8.83667667667671</v>
       </c>
     </row>
   </sheetData>
